--- a/medicine/Sexualité et sexologie/Dis-moi_tout_de_toi/Dis-moi_tout_de_toi.xlsx
+++ b/medicine/Sexualité et sexologie/Dis-moi_tout_de_toi/Dis-moi_tout_de_toi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dis-moi tout de toi ou Dis-moi tout sur toi (titre original : « Tell me all about Yourself ») est une nouvelle macabre de science-fiction de Francis Busby.
@@ -512,16 +524,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Entre 1973 et 2014, la nouvelle a été éditée à une dizaine de reprises dans des recueils de nouvelles ou des anthologies de science-fiction[1].
-Publications aux États-Unis
-La nouvelle est notamment parue en octobre 1973 sous le titre Tell me all about Yourself dans For New Dimensions - 3.
-Publications en France
-La nouvelle a été publiée en France[2] :
-dans le recueil Après nous le délire, éditions Casterman, janvier 1977, collection Autres temps, Autres mondes - Anthologies no 20 ;
-sous le titre Dis-moi tout sur toi dans Univers 18, éditions J'ai lu, 1979 ;
-dans l'anthologie Histoires de l'an 2000, janvier 1985, La Grande Anthologie de la science-fiction no 3817 (1985, réédition en 1999).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1973 et 2014, la nouvelle a été éditée à une dizaine de reprises dans des recueils de nouvelles ou des anthologies de science-fiction.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publications aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nouvelle est notamment parue en octobre 1973 sous le titre Tell me all about Yourself dans For New Dimensions - 3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dis-moi_tout_de_toi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dis-moi_tout_de_toi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La nouvelle a été publiée en France :
+dans le recueil Après nous le délire, éditions Casterman, janvier 1977, collection Autres temps, Autres mondes - Anthologies no 20 ;
+sous le titre Dis-moi tout sur toi dans Univers 18, éditions J'ai lu, 1979 ;
+dans l'anthologie Histoires de l'an 2000, janvier 1985, La Grande Anthologie de la science-fiction no 3817 (1985, réédition en 1999).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dis-moi_tout_de_toi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dis-moi_tout_de_toi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois hommes sont à Hong Kong. Ils décident d'aller dans une maison close où l'on vend mieux que de simples prostituées : on peut y avoir des relations tarifées avec des cadavres. Les femmes sont classées en trois catégories, selon leur état : catégorie A (encore chaudes) ; catégorie B (refroidies) ; catégorie C (totalement froides et en début de décomposition). 
 Le narrateur, qui s'appelle Dale, et ses deux copains Vance et Charie, ont pris diverses drogues, et c'est l'esprit embrumé qu'ils ont pénétré dans cette maison close spéciale. Chacun fait son choix. Le narrateur, pour sa part, a choisi une A+ : il s'agit d'une jeune fille ravissante, encore vierge. 
